--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\bigint_rsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4D81A76-3152-4E25-BE75-C96D4BA35E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE7F05-77A7-47EA-990B-4960390503E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25980" yWindow="2310" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{08B4A99B-A996-4CCB-981D-1E2FBBDF4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08B4A99B-A996-4CCB-981D-1E2FBBDF4844}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Puissance</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>mod10</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v3 </t>
   </si>
 </sst>
 </file>
@@ -91,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -99,6 +105,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +632,445 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$9:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$9:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.855999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142.321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>282.61900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09B8-4CAC-9D98-590657360427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1953236495"/>
+        <c:axId val="1953236911"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1953236495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953236911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1953236911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953236495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1181,6 +1626,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1214,6 +2175,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D9F626-10E4-44C7-9580-9B9608F6FACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1519,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86913B6D-BE1B-45CB-B352-7E1E26291270}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,6 +2608,86 @@
       </c>
       <c r="H7">
         <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2000</v>
+      </c>
+      <c r="B10">
+        <v>6.5890000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3000</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4000</v>
+      </c>
+      <c r="B12">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6000</v>
+      </c>
+      <c r="B13">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20000</v>
+      </c>
+      <c r="B15">
+        <v>71.855999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>40000</v>
+      </c>
+      <c r="B16">
+        <v>142.321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>80000</v>
+      </c>
+      <c r="B17">
+        <v>282.61900000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1621,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227EA8DD-A2D1-41B2-96D4-AE0EDDE6035B}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +2715,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +2738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1689,19 +2766,55 @@
         <v>6.17996E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C3" s="1">
-        <f>0.798993/B3</f>
-        <v>7.989929999999999E-4</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <f>1.53702/B3</f>
+        <v>7.6851000000000003E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <f>0.006/B3</f>
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E3" s="2">
+        <f>0.004/B3</f>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F3" s="1">
+        <f>0.7/B3</f>
+        <v>3.5E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <f>1.109/B3</f>
+        <v>5.5449999999999998E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="1">
+        <f>1.263/B4</f>
+        <v>6.314999999999999E-4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="3">
+        <f>0.000002*20000</f>
+        <v>0.04</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
